--- a/REGULAR/ONT/BAYHON, VIOLETA.xlsx
+++ b/REGULAR/ONT/BAYHON, VIOLETA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C1C4B1-9D75-4E10-87F6-10C3457EC4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56781BCD-4610-4EFA-8B00-4869C030C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -288,6 +291,9 @@
   </si>
   <si>
     <t>11/28,29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1314,9 +1320,9 @@
   <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A82" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
+      <pane ySplit="3576" topLeftCell="A91" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3127,7 +3133,9 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="48" t="s">
+        <v>82</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -3143,7 +3151,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>44927</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>

--- a/REGULAR/ONT/BAYHON, VIOLETA.xlsx
+++ b/REGULAR/ONT/BAYHON, VIOLETA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB886E-A257-4A30-A274-68BCD22D4DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1082,7 +1083,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1786,7 +1787,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1803,25 +1804,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K630" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K630" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2128,34 +2129,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K630"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A557" activePane="bottomLeft"/>
-      <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="F567" sqref="F567"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="3240" topLeftCell="A572"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B580" sqref="B580"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2176,7 +2177,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2196,7 +2197,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2218,7 +2219,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2226,7 +2227,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2239,7 +2240,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -2256,7 +2257,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2300,7 +2301,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>117.65500000000003</v>
+        <v>120.15500000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2310,12 +2311,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.20799999999997</v>
+        <v>63.70799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>87</v>
       </c>
@@ -2330,7 +2331,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>35583</v>
       </c>
@@ -2350,7 +2351,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>35612</v>
       </c>
@@ -2370,7 +2371,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>35643</v>
@@ -2391,7 +2392,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>35674</v>
@@ -2412,7 +2413,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A17" si="0">EDATE(A14,1)</f>
         <v>35704</v>
@@ -2433,7 +2434,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -2454,7 +2455,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -2475,7 +2476,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>88</v>
       </c>
@@ -2493,7 +2494,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f>EDATE(A17,1)</f>
         <v>35796</v>
@@ -2514,7 +2515,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>35827</v>
@@ -2535,7 +2536,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" ref="A21:A31" si="1">EDATE(A20,1)</f>
         <v>35855</v>
@@ -2562,7 +2563,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -2583,7 +2584,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -2604,7 +2605,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -2629,7 +2630,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -2650,7 +2651,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -2671,7 +2672,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -2692,7 +2693,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -2719,7 +2720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>93</v>
@@ -2736,7 +2737,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f>EDATE(A28,1)</f>
         <v>36100</v>
@@ -2763,7 +2764,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -2790,7 +2791,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>94</v>
@@ -2807,7 +2808,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>92</v>
       </c>
@@ -2825,7 +2826,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f>EDATE(A31,1)</f>
         <v>36161</v>
@@ -2852,7 +2853,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>96</v>
@@ -2869,7 +2870,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <f>EDATE(A34,1)</f>
         <v>36192</v>
@@ -2894,7 +2895,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f t="shared" ref="A37:A59" si="2">EDATE(A36,1)</f>
         <v>36220</v>
@@ -2921,7 +2922,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>48</v>
@@ -2940,7 +2941,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>48</v>
@@ -2959,7 +2960,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>97</v>
@@ -2976,7 +2977,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="52"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f>EDATE(A37,1)</f>
         <v>36251</v>
@@ -3003,7 +3004,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>100</v>
@@ -3020,7 +3021,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f>EDATE(A41,1)</f>
         <v>36281</v>
@@ -3045,7 +3046,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>105</v>
@@ -3062,7 +3063,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f>EDATE(A43,1)</f>
         <v>36312</v>
@@ -3089,7 +3090,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>46</v>
@@ -3106,7 +3107,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>48</v>
@@ -3125,7 +3126,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>102</v>
@@ -3142,7 +3143,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f>EDATE(A45,1)</f>
         <v>36342</v>
@@ -3169,7 +3170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>108</v>
@@ -3186,7 +3187,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f>EDATE(A49,1)</f>
         <v>36373</v>
@@ -3213,7 +3214,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -3232,7 +3233,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>109</v>
@@ -3249,7 +3250,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f>EDATE(A51,1)</f>
         <v>36404</v>
@@ -3276,7 +3277,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>110</v>
@@ -3293,7 +3294,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f>EDATE(A54,1)</f>
         <v>36434</v>
@@ -3320,7 +3321,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>111</v>
@@ -3337,7 +3338,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <f>EDATE(A56,1)</f>
         <v>36465</v>
@@ -3362,7 +3363,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -3389,7 +3390,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>106</v>
@@ -3411,7 +3412,7 @@
         <v>45284</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>89</v>
@@ -3431,7 +3432,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>113</v>
@@ -3451,7 +3452,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>114</v>
       </c>
@@ -3469,7 +3470,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f>EDATE(A59,1)</f>
         <v>36526</v>
@@ -3494,7 +3495,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f>EDATE(A64,1)</f>
         <v>36557</v>
@@ -3521,7 +3522,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>116</v>
@@ -3538,7 +3539,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f>EDATE(A65,1)</f>
         <v>36586</v>
@@ -3565,7 +3566,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>117</v>
@@ -3582,7 +3583,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>45</v>
@@ -3599,7 +3600,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f>EDATE(A67,1)</f>
         <v>36617</v>
@@ -3620,7 +3621,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f t="shared" ref="A71:A76" si="3">EDATE(A70,1)</f>
         <v>36647</v>
@@ -3647,7 +3648,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>115</v>
@@ -3664,7 +3665,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f>EDATE(A71,1)</f>
         <v>36678</v>
@@ -3685,7 +3686,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -3712,7 +3713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -3733,7 +3734,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -3760,7 +3761,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>48</v>
@@ -3779,7 +3780,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>101</v>
@@ -3796,7 +3797,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f>EDATE(A76,1)</f>
         <v>36800</v>
@@ -3823,7 +3824,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>48</v>
@@ -3842,7 +3843,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>117</v>
@@ -3859,7 +3860,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A79,1)</f>
         <v>36831</v>
@@ -3886,7 +3887,7 @@
         <v>36839</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>48</v>
@@ -3905,7 +3906,7 @@
         <v>36849</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <f>EDATE(A82,1)</f>
         <v>36861</v>
@@ -3930,7 +3931,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>121</v>
       </c>
@@ -3948,7 +3949,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f>EDATE(A84,1)</f>
         <v>36892</v>
@@ -3975,7 +3976,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>122</v>
@@ -3992,7 +3993,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="52"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <f>EDATE(A86,1)</f>
         <v>36923</v>
@@ -4019,7 +4020,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <f t="shared" ref="A89:A98" si="4">EDATE(A88,1)</f>
         <v>36951</v>
@@ -4046,7 +4047,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f t="shared" si="4"/>
         <v>36982</v>
@@ -4073,7 +4074,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>48</v>
@@ -4092,7 +4093,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>37012</v>
@@ -4119,7 +4120,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -4146,7 +4147,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -4173,7 +4174,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>124</v>
@@ -4190,7 +4191,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f>EDATE(A94,1)</f>
         <v>37104</v>
@@ -4211,7 +4212,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -4238,7 +4239,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -4265,7 +4266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>48</v>
@@ -4284,7 +4285,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>48</v>
@@ -4303,7 +4304,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>129</v>
@@ -4320,7 +4321,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="52"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f>EDATE(A98,1)</f>
         <v>37196</v>
@@ -4347,7 +4348,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>48</v>
@@ -4366,7 +4367,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>130</v>
@@ -4385,7 +4386,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f>EDATE(A102,1)</f>
         <v>37226</v>
@@ -4412,7 +4413,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>89</v>
@@ -4432,7 +4433,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>132</v>
       </c>
@@ -4450,7 +4451,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <f>EDATE(A105,1)</f>
         <v>37257</v>
@@ -4477,7 +4478,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>105</v>
@@ -4494,7 +4495,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>48</v>
@@ -4513,7 +4514,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>46</v>
@@ -4530,7 +4531,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f>EDATE(A108,1)</f>
         <v>37288</v>
@@ -4555,7 +4556,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f t="shared" ref="A113:A128" si="5">EDATE(A112,1)</f>
         <v>37316</v>
@@ -4582,7 +4583,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>135</v>
@@ -4599,7 +4600,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>37347</v>
@@ -4626,7 +4627,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>46</v>
@@ -4643,7 +4644,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>127</v>
@@ -4662,7 +4663,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>48</v>
@@ -4681,7 +4682,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f>EDATE(A115,1)</f>
         <v>37377</v>
@@ -4708,7 +4709,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -4735,7 +4736,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>48</v>
@@ -4754,7 +4755,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <f>EDATE(A120,1)</f>
         <v>37438</v>
@@ -4781,7 +4782,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>51</v>
@@ -4800,7 +4801,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>140</v>
@@ -4817,7 +4818,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f>EDATE(A122,1)</f>
         <v>37469</v>
@@ -4842,7 +4843,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <f t="shared" si="5"/>
         <v>37500</v>
@@ -4869,7 +4870,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <f t="shared" si="5"/>
         <v>37530</v>
@@ -4894,7 +4895,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -4919,7 +4920,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f>EDATE(A128,1)</f>
         <v>37591</v>
@@ -4944,7 +4945,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>144</v>
       </c>
@@ -4962,7 +4963,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <f>EDATE(A129,1)</f>
         <v>37622</v>
@@ -4989,7 +4990,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>48</v>
@@ -5006,7 +5007,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -5025,7 +5026,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <f>EDATE(A131,1)</f>
         <v>37653</v>
@@ -5052,7 +5053,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>146</v>
@@ -5069,7 +5070,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f>EDATE(A134,1)</f>
         <v>37681</v>
@@ -5090,7 +5091,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f t="shared" ref="A137:A145" si="6">EDATE(A136,1)</f>
         <v>37712</v>
@@ -5111,7 +5112,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -5138,7 +5139,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <f t="shared" si="6"/>
         <v>37773</v>
@@ -5165,7 +5166,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>48</v>
@@ -5184,7 +5185,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <f>EDATE(A139,1)</f>
         <v>37803</v>
@@ -5205,7 +5206,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -5226,7 +5227,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -5251,7 +5252,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -5276,7 +5277,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -5301,7 +5302,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <f>EDATE(A145,1)</f>
         <v>37956</v>
@@ -5328,7 +5329,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>78</v>
@@ -5345,7 +5346,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="48" t="s">
         <v>150</v>
       </c>
@@ -5363,7 +5364,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f>EDATE(A146,1)</f>
         <v>37987</v>
@@ -5390,7 +5391,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>130</v>
@@ -5409,7 +5410,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <f>EDATE(A149,1)</f>
         <v>38018</v>
@@ -5436,7 +5437,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <f t="shared" ref="A152:A162" si="7">EDATE(A151,1)</f>
         <v>38047</v>
@@ -5463,7 +5464,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -5488,7 +5489,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>51</v>
@@ -5507,7 +5508,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>38108</v>
@@ -5534,7 +5535,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -5561,7 +5562,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -5582,7 +5583,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -5603,7 +5604,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -5624,7 +5625,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <f t="shared" si="7"/>
         <v>38261</v>
@@ -5645,7 +5646,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <f t="shared" si="7"/>
         <v>38292</v>
@@ -5670,7 +5671,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f t="shared" si="7"/>
         <v>38322</v>
@@ -5695,7 +5696,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="48" t="s">
         <v>155</v>
       </c>
@@ -5713,7 +5714,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <f>EDATE(A162,1)</f>
         <v>38353</v>
@@ -5738,7 +5739,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>46</v>
@@ -5755,7 +5756,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <f>EDATE(A164,1)</f>
         <v>38384</v>
@@ -5780,7 +5781,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <f t="shared" ref="A167:A179" si="8">EDATE(A166,1)</f>
         <v>38412</v>
@@ -5805,7 +5806,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <f t="shared" si="8"/>
         <v>38443</v>
@@ -5830,7 +5831,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>46</v>
@@ -5847,7 +5848,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>162</v>
@@ -5864,7 +5865,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>38473</v>
@@ -5885,7 +5886,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -5912,7 +5913,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>163</v>
@@ -5929,7 +5930,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="52"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <f>EDATE(A172,1)</f>
         <v>38534</v>
@@ -5954,7 +5955,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <f t="shared" si="8"/>
         <v>38565</v>
@@ -5979,7 +5980,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -6000,7 +6001,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f t="shared" si="8"/>
         <v>38626</v>
@@ -6021,7 +6022,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -6042,7 +6043,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -6067,7 +6068,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="48" t="s">
         <v>166</v>
       </c>
@@ -6085,7 +6086,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
         <f>EDATE(A179,1)</f>
         <v>38718</v>
@@ -6112,7 +6113,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>48</v>
@@ -6131,7 +6132,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>167</v>
@@ -6148,7 +6149,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
         <f>EDATE(A181,1)</f>
         <v>38749</v>
@@ -6173,7 +6174,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <f t="shared" ref="A185:A199" si="9">EDATE(A184,1)</f>
         <v>38777</v>
@@ -6198,7 +6199,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>46</v>
@@ -6215,7 +6216,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>48</v>
@@ -6234,7 +6235,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <f>EDATE(A185,1)</f>
         <v>38808</v>
@@ -6261,7 +6262,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>89</v>
@@ -6280,7 +6281,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <f>EDATE(A188,1)</f>
         <v>38838</v>
@@ -6305,7 +6306,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -6330,7 +6331,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -6355,7 +6356,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <f t="shared" si="9"/>
         <v>38930</v>
@@ -6382,7 +6383,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>175</v>
@@ -6399,7 +6400,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <f>EDATE(A193,1)</f>
         <v>38961</v>
@@ -6424,7 +6425,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -6451,7 +6452,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>177</v>
@@ -6468,7 +6469,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <f>EDATE(A196,1)</f>
         <v>39022</v>
@@ -6493,7 +6494,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <f t="shared" si="9"/>
         <v>39052</v>
@@ -6520,7 +6521,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>179</v>
@@ -6540,7 +6541,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="48" t="s">
         <v>180</v>
       </c>
@@ -6558,7 +6559,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <f>EDATE(A199,1)</f>
         <v>39083</v>
@@ -6585,7 +6586,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>163</v>
@@ -6604,7 +6605,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>181</v>
@@ -6621,7 +6622,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39114</v>
@@ -6646,7 +6647,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <f t="shared" ref="A206:A224" si="10">EDATE(A205,1)</f>
         <v>39142</v>
@@ -6673,7 +6674,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -6690,7 +6691,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>183</v>
@@ -6707,7 +6708,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <f>EDATE(A206,1)</f>
         <v>39173</v>
@@ -6734,7 +6735,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>185</v>
@@ -6751,7 +6752,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f>EDATE(A209,1)</f>
         <v>39203</v>
@@ -6774,7 +6775,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="52"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -6801,7 +6802,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>48</v>
@@ -6818,7 +6819,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <f>EDATE(A212,1)</f>
         <v>39264</v>
@@ -6845,7 +6846,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>46</v>
@@ -6862,7 +6863,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>48</v>
@@ -6881,7 +6882,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <f>EDATE(A214,1)</f>
         <v>39295</v>
@@ -6908,7 +6909,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>187</v>
@@ -6925,7 +6926,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
         <f>EDATE(A217,1)</f>
         <v>39326</v>
@@ -6950,7 +6951,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>188</v>
@@ -6967,7 +6968,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <f>EDATE(A219,1)</f>
         <v>39356</v>
@@ -6994,7 +6995,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>189</v>
@@ -7011,7 +7012,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f>EDATE(A221,1)</f>
         <v>39387</v>
@@ -7038,7 +7039,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <f t="shared" si="10"/>
         <v>39417</v>
@@ -7065,7 +7066,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>192</v>
@@ -7085,7 +7086,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="48" t="s">
         <v>193</v>
       </c>
@@ -7103,7 +7104,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <f>EDATE(A224,1)</f>
         <v>39448</v>
@@ -7130,7 +7131,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>46</v>
@@ -7147,7 +7148,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>48</v>
@@ -7166,7 +7167,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>194</v>
@@ -7183,7 +7184,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="52"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <f>EDATE(A227,1)</f>
         <v>39479</v>
@@ -7208,7 +7209,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f t="shared" ref="A232:A248" si="11">EDATE(A231,1)</f>
         <v>39508</v>
@@ -7233,7 +7234,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>48</v>
@@ -7252,7 +7253,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>196</v>
@@ -7269,7 +7270,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <f>EDATE(A232,1)</f>
         <v>39539</v>
@@ -7296,7 +7297,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>48</v>
@@ -7315,7 +7316,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>198</v>
@@ -7332,7 +7333,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <f>EDATE(A235,1)</f>
         <v>39569</v>
@@ -7357,7 +7358,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -7384,7 +7385,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>163</v>
@@ -7403,7 +7404,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>200</v>
@@ -7420,7 +7421,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <f>EDATE(A239,1)</f>
         <v>39630</v>
@@ -7445,7 +7446,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <f t="shared" si="11"/>
         <v>39661</v>
@@ -7472,7 +7473,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>201</v>
@@ -7489,7 +7490,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>39692</v>
@@ -7514,7 +7515,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <f t="shared" si="11"/>
         <v>39722</v>
@@ -7541,7 +7542,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -7568,7 +7569,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23">
         <f t="shared" si="11"/>
         <v>39783</v>
@@ -7589,7 +7590,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="48" t="s">
         <v>203</v>
       </c>
@@ -7607,7 +7608,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <f>EDATE(A248,1)</f>
         <v>39814</v>
@@ -7634,7 +7635,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>204</v>
@@ -7651,7 +7652,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <f>EDATE(A250,1)</f>
         <v>39845</v>
@@ -7676,7 +7677,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <f t="shared" ref="A253:A280" si="12">EDATE(A252,1)</f>
         <v>39873</v>
@@ -7703,7 +7704,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>46</v>
@@ -7720,7 +7721,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>46</v>
@@ -7737,7 +7738,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>206</v>
@@ -7754,7 +7755,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <f>EDATE(A253,1)</f>
         <v>39904</v>
@@ -7779,7 +7780,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -7806,7 +7807,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>46</v>
@@ -7823,7 +7824,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>51</v>
@@ -7842,7 +7843,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>48</v>
@@ -7861,7 +7862,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>156</v>
@@ -7878,7 +7879,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <f>EDATE(A258,1)</f>
         <v>39965</v>
@@ -7905,7 +7906,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>51</v>
@@ -7924,7 +7925,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>211</v>
@@ -7943,7 +7944,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>51</v>
@@ -7962,7 +7963,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>117</v>
@@ -7979,7 +7980,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <f>EDATE(A263,1)</f>
         <v>39995</v>
@@ -8006,7 +8007,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>130</v>
@@ -8025,7 +8026,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>216</v>
@@ -8042,7 +8043,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <f>EDATE(A268,1)</f>
         <v>40026</v>
@@ -8069,7 +8070,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>51</v>
@@ -8088,7 +8089,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>218</v>
@@ -8105,7 +8106,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <f>EDATE(A271,1)</f>
         <v>40057</v>
@@ -8132,7 +8133,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>175</v>
@@ -8149,7 +8150,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <f>EDATE(A274,1)</f>
         <v>40087</v>
@@ -8176,7 +8177,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>48</v>
@@ -8195,7 +8196,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>220</v>
@@ -8212,7 +8213,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <f>EDATE(A276,1)</f>
         <v>40118</v>
@@ -8237,7 +8238,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -8262,7 +8263,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>223</v>
@@ -8279,7 +8280,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="48" t="s">
         <v>222</v>
       </c>
@@ -8297,7 +8298,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <f>EDATE(A280,1)</f>
         <v>40179</v>
@@ -8322,7 +8323,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>165</v>
@@ -8339,7 +8340,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23">
         <f>EDATE(A283,1)</f>
         <v>40210</v>
@@ -8366,7 +8367,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>48</v>
@@ -8385,7 +8386,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>225</v>
@@ -8402,7 +8403,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="52"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <f>EDATE(A285,1)</f>
         <v>40238</v>
@@ -8429,7 +8430,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>48</v>
@@ -8448,7 +8449,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>46</v>
@@ -8465,7 +8466,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>68</v>
@@ -8484,7 +8485,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>130</v>
@@ -8503,7 +8504,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>226</v>
@@ -8520,7 +8521,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <f>EDATE(A288,1)</f>
         <v>40269</v>
@@ -8545,7 +8546,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>48</v>
@@ -8564,7 +8565,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>101</v>
@@ -8581,7 +8582,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <f>EDATE(A294,1)</f>
         <v>40299</v>
@@ -8608,7 +8609,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -8627,7 +8628,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>48</v>
@@ -8646,7 +8647,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>188</v>
@@ -8663,7 +8664,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <f>EDATE(A297,1)</f>
         <v>40330</v>
@@ -8690,7 +8691,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>67</v>
@@ -8709,7 +8710,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>233</v>
@@ -8726,7 +8727,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f>EDATE(A301,1)</f>
         <v>40360</v>
@@ -8753,7 +8754,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>235</v>
@@ -8770,7 +8771,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <f>EDATE(A304,1)</f>
         <v>40391</v>
@@ -8797,7 +8798,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>236</v>
@@ -8814,7 +8815,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="52"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <f>EDATE(A306,1)</f>
         <v>40422</v>
@@ -8841,7 +8842,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>237</v>
@@ -8858,7 +8859,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <f>EDATE(A308,1)</f>
         <v>40452</v>
@@ -8885,7 +8886,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>238</v>
@@ -8902,7 +8903,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <f>EDATE(A310,1)</f>
         <v>40483</v>
@@ -8929,7 +8930,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>48</v>
@@ -8948,7 +8949,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>240</v>
@@ -8965,7 +8966,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <f t="shared" ref="A315" si="13">EDATE(A312,1)</f>
         <v>40513</v>
@@ -8992,7 +8993,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>68</v>
@@ -9012,7 +9013,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>242</v>
@@ -9032,7 +9033,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="48" t="s">
         <v>244</v>
       </c>
@@ -9050,7 +9051,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f>EDATE(A315,1)</f>
         <v>40544</v>
@@ -9075,7 +9076,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <f>EDATE(A319,1)</f>
         <v>40575</v>
@@ -9102,7 +9103,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>246</v>
@@ -9121,7 +9122,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>247</v>
@@ -9138,7 +9139,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <f>EDATE(A320,1)</f>
         <v>40603</v>
@@ -9163,7 +9164,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f t="shared" ref="A324:A328" si="14">EDATE(A323,1)</f>
         <v>40634</v>
@@ -9188,7 +9189,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <f t="shared" si="14"/>
         <v>40664</v>
@@ -9215,7 +9216,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>250</v>
@@ -9232,7 +9233,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <f>EDATE(A325,1)</f>
         <v>40695</v>
@@ -9257,7 +9258,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -9284,7 +9285,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>127</v>
@@ -9303,7 +9304,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>255</v>
@@ -9322,7 +9323,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <f>EDATE(A328,1)</f>
         <v>40756</v>
@@ -9349,7 +9350,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>127</v>
@@ -9368,7 +9369,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>48</v>
@@ -9387,7 +9388,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <f>EDATE(A331,1)</f>
         <v>40787</v>
@@ -9414,7 +9415,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>48</v>
@@ -9433,7 +9434,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>48</v>
@@ -9450,7 +9451,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>46</v>
@@ -9467,7 +9468,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <f>EDATE(A334,1)</f>
         <v>40817</v>
@@ -9492,7 +9493,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <f>EDATE(A338,1)</f>
         <v>40848</v>
@@ -9519,7 +9520,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>48</v>
@@ -9536,7 +9537,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>264</v>
@@ -9553,7 +9554,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <f>EDATE(A339,1)</f>
         <v>40878</v>
@@ -9580,7 +9581,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>48</v>
@@ -9602,7 +9603,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>67</v>
@@ -9622,7 +9623,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>48</v>
@@ -9644,7 +9645,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>51</v>
@@ -9666,7 +9667,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>127</v>
@@ -9685,7 +9686,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>269</v>
@@ -9702,7 +9703,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="48" t="s">
         <v>267</v>
       </c>
@@ -9720,7 +9721,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <f>EDATE(A342,1)</f>
         <v>40909</v>
@@ -9745,7 +9746,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>48</v>
@@ -9764,7 +9765,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>48</v>
@@ -9783,7 +9784,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f>EDATE(A350,1)</f>
         <v>40940</v>
@@ -9810,7 +9811,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>67</v>
@@ -9829,7 +9830,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>52</v>
@@ -9848,7 +9849,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
         <v>163</v>
@@ -9867,7 +9868,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -9886,7 +9887,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>53</v>
@@ -9905,7 +9906,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>50</v>
@@ -9924,7 +9925,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>80</v>
@@ -9943,7 +9944,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f>EDATE(A353,1)</f>
         <v>40969</v>
@@ -9964,7 +9965,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <f t="shared" ref="A362:A375" si="15">EDATE(A361,1)</f>
         <v>41000</v>
@@ -9991,7 +9992,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>48</v>
@@ -10010,7 +10011,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>61</v>
@@ -10031,7 +10032,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>279</v>
@@ -10050,7 +10051,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <f>EDATE(A362,1)</f>
         <v>41030</v>
@@ -10071,7 +10072,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <f t="shared" si="15"/>
         <v>41061</v>
@@ -10100,7 +10101,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>50</v>
@@ -10119,7 +10120,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>73</v>
@@ -10138,7 +10139,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <f>EDATE(A367,1)</f>
         <v>41091</v>
@@ -10165,7 +10166,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>61</v>
@@ -10184,7 +10185,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f>EDATE(A370,1)</f>
         <v>41122</v>
@@ -10213,7 +10214,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>286</v>
@@ -10230,7 +10231,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41153</v>
@@ -10251,7 +10252,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -10278,7 +10279,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>48</v>
@@ -10297,7 +10298,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23">
         <f>EDATE(A375,1)</f>
         <v>41214</v>
@@ -10324,7 +10325,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>48</v>
@@ -10343,7 +10344,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A377,1)</f>
         <v>41244</v>
@@ -10370,7 +10371,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>49</v>
@@ -10392,7 +10393,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="48" t="s">
         <v>292</v>
       </c>
@@ -10410,7 +10411,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <f>EDATE(A379,1)</f>
         <v>41275</v>
@@ -10437,7 +10438,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>51</v>
@@ -10456,7 +10457,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f>EDATE(A382,1)</f>
         <v>41306</v>
@@ -10483,7 +10484,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>47</v>
@@ -10502,7 +10503,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f>EDATE(A384,1)</f>
         <v>41334</v>
@@ -10527,7 +10528,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>294</v>
@@ -10544,7 +10545,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f>EDATE(A386,1)</f>
         <v>41365</v>
@@ -10571,7 +10572,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>78</v>
@@ -10590,7 +10591,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>48</v>
@@ -10609,7 +10610,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>41395</v>
@@ -10636,7 +10637,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23">
         <f t="shared" ref="A392:A404" si="16">EDATE(A391,1)</f>
         <v>41426</v>
@@ -10661,7 +10662,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -10688,7 +10689,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>47</v>
@@ -10707,7 +10708,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>298</v>
@@ -10724,7 +10725,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="52"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23">
         <f>EDATE(A393,1)</f>
         <v>41487</v>
@@ -10751,7 +10752,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -10770,7 +10771,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>173</v>
@@ -10787,7 +10788,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23">
         <f>EDATE(A396,1)</f>
         <v>41518</v>
@@ -10808,7 +10809,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
         <f t="shared" si="16"/>
         <v>41548</v>
@@ -10835,7 +10836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>46</v>
@@ -10852,7 +10853,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>299</v>
@@ -10869,7 +10870,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
         <f>EDATE(A400,1)</f>
         <v>41579</v>
@@ -10890,7 +10891,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -10911,7 +10912,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="48" t="s">
         <v>302</v>
       </c>
@@ -10929,7 +10930,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <f>EDATE(A404,1)</f>
         <v>41640</v>
@@ -10956,7 +10957,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23">
         <f>EDATE(A406,1)</f>
         <v>41671</v>
@@ -10983,7 +10984,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>46</v>
@@ -11000,7 +11001,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>48</v>
@@ -11019,7 +11020,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>46</v>
@@ -11036,7 +11037,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>48</v>
@@ -11055,7 +11056,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>303</v>
@@ -11072,7 +11073,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <f>EDATE(A407,1)</f>
         <v>41699</v>
@@ -11093,7 +11094,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23">
         <f t="shared" ref="A414:A425" si="17">EDATE(A413,1)</f>
         <v>41730</v>
@@ -11120,7 +11121,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>163</v>
@@ -11142,7 +11143,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>306</v>
@@ -11162,7 +11163,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <f>EDATE(A414,1)</f>
         <v>41760</v>
@@ -11189,7 +11190,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23"/>
       <c r="B418" s="20" t="s">
         <v>51</v>
@@ -11208,7 +11209,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>48</v>
@@ -11227,7 +11228,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23">
         <f>EDATE(A417,1)</f>
         <v>41791</v>
@@ -11254,7 +11255,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -11279,7 +11280,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -11306,7 +11307,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>310</v>
@@ -11323,7 +11324,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23">
         <f>EDATE(A422,1)</f>
         <v>41883</v>
@@ -11350,7 +11351,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -11377,7 +11378,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>47</v>
@@ -11394,7 +11395,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23">
         <f>EDATE(A425,1)</f>
         <v>41944</v>
@@ -11415,7 +11416,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f>EDATE(A427,1)</f>
         <v>41974</v>
@@ -11442,7 +11443,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>314</v>
@@ -11462,7 +11463,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="48" t="s">
         <v>315</v>
       </c>
@@ -11480,7 +11481,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <f>EDATE(A428,1)</f>
         <v>42005</v>
@@ -11505,7 +11506,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f>EDATE(A431,1)</f>
         <v>42036</v>
@@ -11532,7 +11533,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>317</v>
@@ -11549,7 +11550,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23">
         <f>EDATE(A432,1)</f>
         <v>42064</v>
@@ -11576,7 +11577,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>270</v>
@@ -11593,7 +11594,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>158</v>
@@ -11610,7 +11611,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23">
         <f>EDATE(A434,1)</f>
         <v>42095</v>
@@ -11637,7 +11638,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
         <v>47</v>
@@ -11656,7 +11657,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>47</v>
@@ -11675,7 +11676,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>319</v>
@@ -11692,7 +11693,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <f>EDATE(A437,1)</f>
         <v>42125</v>
@@ -11719,7 +11720,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>321</v>
@@ -11736,7 +11737,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <f>EDATE(A441,1)</f>
         <v>42156</v>
@@ -11763,7 +11764,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
         <v>97</v>
@@ -11780,7 +11781,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23">
         <f>EDATE(A443,1)</f>
         <v>42186</v>
@@ -11801,7 +11802,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23">
         <f t="shared" ref="A446:A451" si="18">EDATE(A445,1)</f>
         <v>42217</v>
@@ -11826,7 +11827,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23">
         <f t="shared" si="18"/>
         <v>42248</v>
@@ -11847,7 +11848,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23">
         <f t="shared" si="18"/>
         <v>42278</v>
@@ -11874,7 +11875,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23"/>
       <c r="B449" s="20" t="s">
         <v>322</v>
@@ -11895,7 +11896,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23">
         <f>EDATE(A448,1)</f>
         <v>42309</v>
@@ -11922,7 +11923,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23">
         <f t="shared" si="18"/>
         <v>42339</v>
@@ -11943,7 +11944,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="48" t="s">
         <v>326</v>
       </c>
@@ -11961,7 +11962,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23">
         <f>EDATE(A451,1)</f>
         <v>42370</v>
@@ -11986,7 +11987,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23">
         <f>EDATE(A453,1)</f>
         <v>42401</v>
@@ -12013,7 +12014,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>45</v>
@@ -12030,7 +12031,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>48</v>
@@ -12049,7 +12050,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>80</v>
@@ -12068,7 +12069,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23">
         <f>EDATE(A454,1)</f>
         <v>42430</v>
@@ -12089,7 +12090,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23">
         <f t="shared" ref="A459:A466" si="19">EDATE(A458,1)</f>
         <v>42461</v>
@@ -12116,7 +12117,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>51</v>
@@ -12135,7 +12136,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23">
         <f>EDATE(A459,1)</f>
         <v>42491</v>
@@ -12156,7 +12157,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -12177,7 +12178,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -12198,7 +12199,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="23">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -12219,7 +12220,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23">
         <f t="shared" si="19"/>
         <v>42614</v>
@@ -12240,7 +12241,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -12267,7 +12268,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>48</v>
@@ -12286,7 +12287,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>48</v>
@@ -12305,7 +12306,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -12324,7 +12325,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23">
         <f>EDATE(A466,1)</f>
         <v>42675</v>
@@ -12351,7 +12352,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23"/>
       <c r="B471" s="20" t="s">
         <v>47</v>
@@ -12370,7 +12371,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23">
         <f>EDATE(A470,1)</f>
         <v>42705</v>
@@ -12391,7 +12392,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="48" t="s">
         <v>333</v>
       </c>
@@ -12409,7 +12410,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="55"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23">
         <f>EDATE(A472,1)</f>
         <v>42736</v>
@@ -12434,7 +12435,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>127</v>
@@ -12453,7 +12454,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
         <v>48</v>
@@ -12472,7 +12473,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="23">
         <f>EDATE(A474,1)</f>
         <v>42767</v>
@@ -12499,7 +12500,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23">
         <f t="shared" ref="A478:A490" si="20">EDATE(A477,1)</f>
         <v>42795</v>
@@ -12526,7 +12527,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="23">
         <f t="shared" si="20"/>
         <v>42826</v>
@@ -12551,7 +12552,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>48</v>
@@ -12570,7 +12571,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>48</v>
@@ -12589,7 +12590,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="23"/>
       <c r="B482" s="20" t="s">
         <v>67</v>
@@ -12608,7 +12609,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>47</v>
@@ -12627,7 +12628,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="23">
         <f>EDATE(A479,1)</f>
         <v>42856</v>
@@ -12648,7 +12649,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="23">
         <f t="shared" si="20"/>
         <v>42887</v>
@@ -12675,7 +12676,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="23">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -12696,7 +12697,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -12723,7 +12724,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="23">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -12744,7 +12745,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="23">
         <f t="shared" si="20"/>
         <v>43009</v>
@@ -12773,7 +12774,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="23">
         <f t="shared" si="20"/>
         <v>43040</v>
@@ -12794,7 +12795,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="23">
         <f>EDATE(A490,1)</f>
         <v>43070</v>
@@ -12821,7 +12822,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="23"/>
       <c r="B492" s="20" t="s">
         <v>49</v>
@@ -12843,7 +12844,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="48" t="s">
         <v>44</v>
       </c>
@@ -12865,7 +12866,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>43101</v>
       </c>
@@ -12889,7 +12890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>43132</v>
       </c>
@@ -12909,7 +12910,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43160</v>
       </c>
@@ -12933,7 +12934,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>47</v>
@@ -12952,7 +12953,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>48</v>
@@ -12971,7 +12972,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>48</v>
@@ -12990,7 +12991,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>49</v>
@@ -13011,7 +13012,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>50</v>
@@ -13030,7 +13031,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>50</v>
@@ -13049,7 +13050,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>43191</v>
       </c>
@@ -13069,7 +13070,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43221</v>
       </c>
@@ -13095,7 +13096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="15" t="s">
         <v>50</v>
@@ -13116,7 +13117,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>43252</v>
       </c>
@@ -13142,7 +13143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="15" t="s">
         <v>53</v>
@@ -13161,7 +13162,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>43282</v>
       </c>
@@ -13187,7 +13188,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>43313</v>
       </c>
@@ -13213,7 +13214,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>51</v>
@@ -13232,7 +13233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>61</v>
@@ -13251,7 +13252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>43344</v>
       </c>
@@ -13271,7 +13272,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43374</v>
       </c>
@@ -13297,7 +13298,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>43405</v>
       </c>
@@ -13323,7 +13324,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>43435</v>
       </c>
@@ -13343,7 +13344,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="48" t="s">
         <v>66</v>
       </c>
@@ -13361,7 +13362,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>43466</v>
       </c>
@@ -13381,7 +13382,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>43497</v>
       </c>
@@ -13401,7 +13402,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>43525</v>
       </c>
@@ -13421,7 +13422,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>43556</v>
       </c>
@@ -13445,7 +13446,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>48</v>
@@ -13464,7 +13465,7 @@
         <v>43599</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>43586</v>
       </c>
@@ -13490,7 +13491,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>43617</v>
       </c>
@@ -13510,7 +13511,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>43647</v>
       </c>
@@ -13536,7 +13537,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>43678</v>
       </c>
@@ -13556,7 +13557,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>43709</v>
       </c>
@@ -13576,7 +13577,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>43739</v>
       </c>
@@ -13602,7 +13603,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>43770</v>
       </c>
@@ -13628,7 +13629,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>43800</v>
       </c>
@@ -13652,7 +13653,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="48" t="s">
         <v>70</v>
       </c>
@@ -13670,7 +13671,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>43831</v>
       </c>
@@ -13694,7 +13695,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>67</v>
@@ -13711,7 +13712,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>43862</v>
       </c>
@@ -13731,7 +13732,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>43891</v>
       </c>
@@ -13751,7 +13752,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>43922</v>
       </c>
@@ -13771,7 +13772,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>43952</v>
       </c>
@@ -13791,7 +13792,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>43983</v>
       </c>
@@ -13811,7 +13812,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44013</v>
       </c>
@@ -13831,7 +13832,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44044</v>
       </c>
@@ -13851,7 +13852,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44075</v>
       </c>
@@ -13871,7 +13872,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44105</v>
       </c>
@@ -13891,7 +13892,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44136</v>
       </c>
@@ -13911,7 +13912,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>44166</v>
       </c>
@@ -13935,7 +13936,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="48" t="s">
         <v>74</v>
       </c>
@@ -13953,7 +13954,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44197</v>
       </c>
@@ -13973,7 +13974,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>44228</v>
       </c>
@@ -13993,7 +13994,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44256</v>
       </c>
@@ -14013,7 +14014,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>44287</v>
       </c>
@@ -14033,7 +14034,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>44317</v>
       </c>
@@ -14053,7 +14054,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44348</v>
       </c>
@@ -14073,7 +14074,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44378</v>
       </c>
@@ -14093,7 +14094,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>44409</v>
       </c>
@@ -14113,7 +14114,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>44440</v>
       </c>
@@ -14133,7 +14134,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>44470</v>
       </c>
@@ -14153,7 +14154,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>44501</v>
       </c>
@@ -14177,7 +14178,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>44531</v>
       </c>
@@ -14203,7 +14204,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="48" t="s">
         <v>75</v>
       </c>
@@ -14221,7 +14222,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>44562</v>
       </c>
@@ -14241,7 +14242,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>44593</v>
       </c>
@@ -14265,7 +14266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44621</v>
       </c>
@@ -14289,7 +14290,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>44652</v>
       </c>
@@ -14313,7 +14314,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>44682</v>
       </c>
@@ -14337,7 +14338,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>44713</v>
       </c>
@@ -14361,7 +14362,7 @@
         <v>44735</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>345</v>
@@ -14381,7 +14382,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="49"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>44743</v>
       </c>
@@ -14405,7 +14406,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>44774</v>
       </c>
@@ -14425,7 +14426,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>44805</v>
       </c>
@@ -14449,7 +14450,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>44835</v>
       </c>
@@ -14469,7 +14470,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>44866</v>
       </c>
@@ -14495,7 +14496,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>343</v>
@@ -14515,7 +14516,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>44896</v>
       </c>
@@ -14541,7 +14542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>342</v>
@@ -14561,7 +14562,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="48" t="s">
         <v>82</v>
       </c>
@@ -14579,9 +14580,9 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B574" s="20" t="s">
         <v>51</v>
@@ -14605,9 +14606,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B575" s="20" t="s">
         <v>80</v>
@@ -14631,7 +14632,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>46</v>
@@ -14651,9 +14652,9 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B577" s="20" t="s">
         <v>46</v>
@@ -14675,7 +14676,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>47</v>
@@ -14697,9 +14698,9 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B579" s="20" t="s">
         <v>80</v>
@@ -14723,9 +14724,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13">
@@ -14743,9 +14744,9 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13">
@@ -14763,9 +14764,9 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13">
@@ -14783,45 +14784,49 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B583" s="20"/>
-      <c r="C583" s="13"/>
+      <c r="C583" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D583" s="39"/>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
-      <c r="G583" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G583" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B584" s="20"/>
-      <c r="C584" s="13"/>
+      <c r="C584" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D584" s="39"/>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G584" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14837,9 +14842,9 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -14855,9 +14860,9 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -14873,9 +14878,9 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -14891,9 +14896,9 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -14909,9 +14914,9 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -14927,9 +14932,9 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -14945,9 +14950,9 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -14963,9 +14968,9 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -14981,9 +14986,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -14999,9 +15004,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
-        <v>45505</v>
+        <v>45535</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15017,9 +15022,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
-        <v>45536</v>
+        <v>45565</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15035,9 +15040,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15053,9 +15058,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
-        <v>45597</v>
+        <v>45626</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15071,9 +15076,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
-        <v>45627</v>
+        <v>45657</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15089,9 +15094,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
-        <v>45658</v>
+        <v>45688</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15107,9 +15112,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
-        <v>45689</v>
+        <v>45716</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15125,9 +15130,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15143,9 +15148,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
-        <v>45748</v>
+        <v>45777</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15161,9 +15166,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
-        <v>45778</v>
+        <v>45808</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15179,9 +15184,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
-        <v>45809</v>
+        <v>45838</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15197,9 +15202,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
-        <v>45839</v>
+        <v>45869</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15215,9 +15220,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
-        <v>45870</v>
+        <v>45900</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15233,9 +15238,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
-        <v>45901</v>
+        <v>45930</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15251,9 +15256,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
-        <v>45931</v>
+        <v>45961</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15269,9 +15274,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
-        <v>45962</v>
+        <v>45991</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15287,9 +15292,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
-        <v>45992</v>
+        <v>46022</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15305,9 +15310,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
-        <v>46023</v>
+        <v>46053</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15323,9 +15328,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
-        <v>46054</v>
+        <v>46081</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15341,9 +15346,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
-        <v>46082</v>
+        <v>46112</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15359,9 +15364,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
-        <v>46113</v>
+        <v>46142</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15377,9 +15382,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
-        <v>46143</v>
+        <v>46173</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15395,9 +15400,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
-        <v>46174</v>
+        <v>46203</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15413,9 +15418,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
-        <v>46204</v>
+        <v>46234</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15431,9 +15436,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
-        <v>46235</v>
+        <v>46265</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15449,9 +15454,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
-        <v>46266</v>
+        <v>46295</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15467,9 +15472,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
-        <v>46296</v>
+        <v>46326</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15485,9 +15490,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
-        <v>46327</v>
+        <v>46356</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15503,9 +15508,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
-        <v>46357</v>
+        <v>46387</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15521,9 +15526,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
-        <v>46388</v>
+        <v>46418</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15539,9 +15544,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
-        <v>46419</v>
+        <v>46446</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15557,9 +15562,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
-        <v>46447</v>
+        <v>46477</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15575,9 +15580,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
-        <v>46478</v>
+        <v>46507</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15593,9 +15598,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
-        <v>46508</v>
+        <v>46538</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15611,9 +15616,9 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
-        <v>46539</v>
+        <v>46568</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15629,7 +15634,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="41"/>
       <c r="B630" s="15"/>
       <c r="C630" s="42"/>
@@ -15660,10 +15665,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15686,28 +15691,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -15720,7 +15725,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15749,7 +15754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -15775,17 +15780,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15806,7 +15811,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15833,7 +15838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15859,7 +15864,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15885,7 +15890,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15911,7 +15916,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15937,7 +15942,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15963,7 +15968,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15989,7 +15994,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16015,7 +16020,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16035,7 +16040,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16055,7 +16060,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16075,7 +16080,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16096,7 +16101,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16117,7 +16122,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16138,7 +16143,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16159,7 +16164,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16180,7 +16185,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16201,7 +16206,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16222,7 +16227,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16243,7 +16248,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16264,7 +16269,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16285,7 +16290,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16306,7 +16311,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16327,7 +16332,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16348,7 +16353,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16369,7 +16374,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16390,7 +16395,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16411,7 +16416,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16432,7 +16437,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16453,7 +16458,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16474,7 +16479,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16495,7 +16500,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16504,7 +16509,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16513,7 +16518,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16522,7 +16527,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16531,7 +16536,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16540,7 +16545,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16549,7 +16554,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16558,7 +16563,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16567,7 +16572,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16576,7 +16581,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16585,7 +16590,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16594,7 +16599,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16603,7 +16608,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16612,7 +16617,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16621,7 +16626,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16630,7 +16635,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16639,7 +16644,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16648,7 +16653,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16657,7 +16662,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16666,7 +16671,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16675,7 +16680,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16684,7 +16689,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16693,7 +16698,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16702,7 +16707,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16711,7 +16716,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16720,7 +16725,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16729,7 +16734,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16738,7 +16743,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16747,7 +16752,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16756,7 +16761,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
